--- a/biology/Mycologie/Ramaria_aurea/Ramaria_aurea.xlsx
+++ b/biology/Mycologie/Ramaria_aurea/Ramaria_aurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ramaria aurea, la Clavaire dorée est une espèce de champignons de la famille des Gomphaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sporophore 5 à 12 cm de hauteur, et de 8 à 15 cm de diamètre, de couleur jaune doré, formant un paquet dense de rameaux verticaux légèrement tortueux se terminant par deux pointes. Son aspect général ressemble à du corail.
 Pied Court et trapu dépassant souvent les 5 cm de diamètre.
-Chair Blanche et ferme, ne changeant pas de teinte à la cassure, odeur légèrement épicée, saveur douce[2],[3]  .</t>
+Chair Blanche et ferme, ne changeant pas de teinte à la cassure, odeur légèrement épicée, saveur douce,  .</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Clavaire dorée est considérée comme un piètre comestible, notamment à cause de son effet purgatif, et de sa saveur n'ayant rien d'exceptionnel[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Clavaire dorée est considérée comme un piètre comestible, notamment à cause de son effet purgatif, et de sa saveur n'ayant rien d'exceptionnel.
 </t>
         </is>
       </c>
